--- a/Assessments/Unit4/4.1.6/marvelous_monitors.xlsx
+++ b/Assessments/Unit4/4.1.6/marvelous_monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/Assessments/Unit4/4.1.6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7DF1EEB-BFA2-4A21-A7E1-799308AB049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C7DF1EEB-BFA2-4A21-A7E1-799308AB049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E49C5C-8496-46FB-9787-E866923A5CA7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D1ED3CB0-443D-4ABF-87D1-0D21B4015C9E}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Month</t>
   </si>
@@ -71,6 +71,60 @@
   </si>
   <si>
     <t>Month 12</t>
+  </si>
+  <si>
+    <t>Month 13</t>
+  </si>
+  <si>
+    <t>Month 14</t>
+  </si>
+  <si>
+    <t>Month 15</t>
+  </si>
+  <si>
+    <t>Month 16</t>
+  </si>
+  <si>
+    <t>Month 17</t>
+  </si>
+  <si>
+    <t>Month 18</t>
+  </si>
+  <si>
+    <t>Month 19</t>
+  </si>
+  <si>
+    <t>Month 20</t>
+  </si>
+  <si>
+    <t>Month 21</t>
+  </si>
+  <si>
+    <t>Month 22</t>
+  </si>
+  <si>
+    <t>Month 23</t>
+  </si>
+  <si>
+    <t>Month 24</t>
+  </si>
+  <si>
+    <t>Month 25</t>
+  </si>
+  <si>
+    <t>Month 26</t>
+  </si>
+  <si>
+    <t>Month 27</t>
+  </si>
+  <si>
+    <t>Month 28</t>
+  </si>
+  <si>
+    <t>Month 29</t>
+  </si>
+  <si>
+    <t>Month 30</t>
   </si>
 </sst>
 </file>
@@ -394,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -509,6 +563,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -554,8 +623,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -931,26 +1003,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A57371-8031-4A0D-BB74-5EF59876421B}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -962,13 +1036,13 @@
         <v>12732</v>
       </c>
       <c r="C2">
-        <v>3135</v>
+        <v>1797</v>
       </c>
       <c r="D2">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E2">
-        <v>164</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -979,13 +1053,13 @@
         <v>31243</v>
       </c>
       <c r="C3">
-        <v>3222</v>
+        <v>1659</v>
       </c>
       <c r="D3">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E3">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -996,13 +1070,13 @@
         <v>40403</v>
       </c>
       <c r="C4">
-        <v>4672</v>
+        <v>4219</v>
       </c>
       <c r="D4">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="E4">
-        <v>84</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1013,13 +1087,13 @@
         <v>42103</v>
       </c>
       <c r="C5">
-        <v>3897</v>
+        <v>3958</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="E5">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1030,13 +1104,13 @@
         <v>30757</v>
       </c>
       <c r="C6">
-        <v>2701</v>
+        <v>1423</v>
       </c>
       <c r="D6">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E6">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1047,13 +1121,13 @@
         <v>24935</v>
       </c>
       <c r="C7">
-        <v>1537</v>
+        <v>4360</v>
       </c>
       <c r="D7">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="E7">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1064,13 +1138,13 @@
         <v>25430</v>
       </c>
       <c r="C8">
-        <v>3893</v>
+        <v>4337</v>
       </c>
       <c r="D8">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="E8">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1081,13 +1155,13 @@
         <v>49512</v>
       </c>
       <c r="C9">
-        <v>3120</v>
+        <v>3745</v>
       </c>
       <c r="D9">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="E9">
-        <v>88</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1098,13 +1172,13 @@
         <v>24650</v>
       </c>
       <c r="C10">
-        <v>3825</v>
+        <v>1639</v>
       </c>
       <c r="D10">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="E10">
-        <v>67</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1115,13 +1189,13 @@
         <v>27089</v>
       </c>
       <c r="C11">
-        <v>2940</v>
+        <v>1544</v>
       </c>
       <c r="D11">
         <v>3.3</v>
       </c>
       <c r="E11">
-        <v>129</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1132,13 +1206,13 @@
         <v>42230</v>
       </c>
       <c r="C12">
-        <v>3163</v>
+        <v>3591</v>
       </c>
       <c r="D12">
-        <v>4.9000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="E12">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1149,13 +1223,319 @@
         <v>28983</v>
       </c>
       <c r="C13">
-        <v>1976</v>
+        <v>1714</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="E13">
-        <v>155</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>34152</v>
+      </c>
+      <c r="C14">
+        <v>3292</v>
+      </c>
+      <c r="D14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>45665</v>
+      </c>
+      <c r="C15">
+        <v>1151</v>
+      </c>
+      <c r="D15">
+        <v>3.9</v>
+      </c>
+      <c r="E15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>26921</v>
+      </c>
+      <c r="C16">
+        <v>3723</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>37469</v>
+      </c>
+      <c r="C17">
+        <v>3558</v>
+      </c>
+      <c r="D17">
+        <v>3.2</v>
+      </c>
+      <c r="E17">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>48984</v>
+      </c>
+      <c r="C18">
+        <v>4531</v>
+      </c>
+      <c r="D18">
+        <v>3.4</v>
+      </c>
+      <c r="E18">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>16921</v>
+      </c>
+      <c r="C19">
+        <v>3930</v>
+      </c>
+      <c r="D19">
+        <v>3.3</v>
+      </c>
+      <c r="E19">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>48804</v>
+      </c>
+      <c r="C20">
+        <v>2207</v>
+      </c>
+      <c r="D20">
+        <v>4.3</v>
+      </c>
+      <c r="E20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>12163</v>
+      </c>
+      <c r="C21">
+        <v>3076</v>
+      </c>
+      <c r="D21">
+        <v>3.5</v>
+      </c>
+      <c r="E21">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>15072</v>
+      </c>
+      <c r="C22">
+        <v>1802</v>
+      </c>
+      <c r="D22">
+        <v>3.9</v>
+      </c>
+      <c r="E22">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>47619</v>
+      </c>
+      <c r="C23">
+        <v>3176</v>
+      </c>
+      <c r="D23">
+        <v>3.5</v>
+      </c>
+      <c r="E23">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>17877</v>
+      </c>
+      <c r="C24">
+        <v>3176</v>
+      </c>
+      <c r="D24">
+        <v>3.3</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>28430</v>
+      </c>
+      <c r="C25">
+        <v>2956</v>
+      </c>
+      <c r="D25">
+        <v>3.2</v>
+      </c>
+      <c r="E25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>11871</v>
+      </c>
+      <c r="C26">
+        <v>4125</v>
+      </c>
+      <c r="D26">
+        <v>4.3</v>
+      </c>
+      <c r="E26">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>17599</v>
+      </c>
+      <c r="C27">
+        <v>2925</v>
+      </c>
+      <c r="D27">
+        <v>3.3</v>
+      </c>
+      <c r="E27">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>12496</v>
+      </c>
+      <c r="C28">
+        <v>4622</v>
+      </c>
+      <c r="D28">
+        <v>3.4</v>
+      </c>
+      <c r="E28">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>34675</v>
+      </c>
+      <c r="C29">
+        <v>4560</v>
+      </c>
+      <c r="D29">
+        <v>3.7</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>41921</v>
+      </c>
+      <c r="C30">
+        <v>1756</v>
+      </c>
+      <c r="D30">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E30">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>43523</v>
+      </c>
+      <c r="C31">
+        <v>1273</v>
+      </c>
+      <c r="D31">
+        <v>3.2</v>
+      </c>
+      <c r="E31">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1164,6 +1544,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -1427,30 +1830,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58C16AB4-7D4D-47E3-96B3-2B767A4A04F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
-    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A51D9F3-198C-4A2D-A921-565D05532879}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C757D0EA-7C6A-41FA-AD60-D9EB8DAAD22B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1467,29 +1872,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A51D9F3-198C-4A2D-A921-565D05532879}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58C16AB4-7D4D-47E3-96B3-2B767A4A04F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>